--- a/BaAA/CHW1/report/mac/results.xlsx
+++ b/BaAA/CHW1/report/mac/results.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="19">
   <si>
-    <t>Group 1</t>
+    <t>Группа 1</t>
   </si>
   <si>
-    <t>Group 2</t>
+    <t>Группа 2</t>
   </si>
   <si>
     <t>Сортировка пузырьком</t>
